--- a/others/ゲーム仕様書/01_ゲームタイトル/素材一覧/仕様書(ゲームタイトル)_素材一覧_ver1.00_2015_10_28_1210.xlsx
+++ b/others/ゲーム仕様書/01_ゲームタイトル/素材一覧/仕様書(ゲームタイトル)_素材一覧_ver1.00_2015_10_28_1210.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$46</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -782,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2383,74 +2383,6 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
